--- a/factura.xlsx
+++ b/factura.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="12915" windowHeight="6225"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -127,13 +127,19 @@
   </si>
   <si>
     <t>fact_fech_final</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -182,15 +188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -239,14 +236,53 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -259,83 +295,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +542,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -460,7 +576,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,152 +751,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2"/>
     <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="27"/>
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>11</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="28">
         <v>42370</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="28">
         <v>42372</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="1">
+      <c r="K3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="D4" s="3">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="28">
         <v>42463</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="28">
         <v>42375</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:20" ht="45">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -797,13 +938,10 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -819,118 +957,178 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="9">
         <v>13</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="9">
         <v>80000</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="9">
         <v>3</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="16" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2"/>
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="17" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="J14" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="H15" s="2"/>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="K16">
+        <v>7000</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f>K16*L16</f>
+        <v>21000</v>
+      </c>
+      <c r="O16">
+        <f>7000*0.25</f>
+        <v>1750</v>
+      </c>
+      <c r="P16">
+        <f>7000*0.25</f>
+        <v>1750</v>
+      </c>
+      <c r="Q16">
+        <f>7000*0.25</f>
+        <v>1750</v>
+      </c>
+      <c r="S16" s="31">
+        <f>SUM(O16:Q16)</f>
+        <v>5250</v>
+      </c>
+      <c r="T16">
+        <f>M16-S16</f>
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="15.75" thickBot="1">
+      <c r="K17">
+        <v>7000</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <f>K17*L17</f>
+        <v>28000</v>
+      </c>
+      <c r="O17">
+        <f>7000*0.25</f>
+        <v>1750</v>
+      </c>
+      <c r="P17">
+        <f>7000*0.25</f>
+        <v>1750</v>
+      </c>
+      <c r="Q17">
+        <f>7000*0.25</f>
+        <v>1750</v>
+      </c>
+      <c r="R17">
+        <f>7000*0.25</f>
+        <v>1750</v>
+      </c>
+      <c r="S17" s="32">
+        <f>SUM(O17:R17)</f>
+        <v>7000</v>
+      </c>
+      <c r="T17">
+        <f>M17-S17</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20">
       <c r="B20" s="1">
         <v>1</v>
       </c>
@@ -943,14 +1141,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B18:D18"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -958,24 +1158,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/factura.xlsx
+++ b/factura.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="12915" windowHeight="6225"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -138,8 +138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,50 +409,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,6 +542,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -576,6 +577,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,14 +753,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
@@ -767,26 +769,26 @@
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -804,20 +806,20 @@
       <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A3" s="21">
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3">
@@ -829,22 +831,22 @@
       <c r="F3" s="3">
         <v>11</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="19">
         <v>42370</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="19">
         <v>42372</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="21" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="8" t="s">
@@ -854,7 +856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D4" s="3">
         <v>12</v>
       </c>
@@ -864,33 +866,33 @@
       <c r="F4" s="3">
         <v>12</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="19">
         <v>42463</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="19">
         <v>42375</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A6" s="14" t="s">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="25" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
-    </row>
-    <row r="7" spans="1:20" ht="45">
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -918,11 +920,11 @@
       <c r="L7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -941,7 +943,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -960,7 +962,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>13</v>
       </c>
@@ -979,32 +981,32 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="8" t="s">
         <v>2</v>
@@ -1023,7 +1025,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1038,7 +1040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K16">
         <v>7000</v>
       </c>
@@ -1050,18 +1052,18 @@
         <v>21000</v>
       </c>
       <c r="O16">
-        <f>7000*0.25</f>
+        <f t="shared" ref="O16:Q17" si="0">7000*0.25</f>
         <v>1750</v>
       </c>
       <c r="P16">
-        <f>7000*0.25</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="Q16">
-        <f>7000*0.25</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="22">
         <f>SUM(O16:Q16)</f>
         <v>5250</v>
       </c>
@@ -1070,7 +1072,7 @@
         <v>15750</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1">
+    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K17">
         <v>7000</v>
       </c>
@@ -1082,22 +1084,22 @@
         <v>28000</v>
       </c>
       <c r="O17">
-        <f>7000*0.25</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="P17">
-        <f>7000*0.25</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="Q17">
-        <f>7000*0.25</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="R17">
         <f>7000*0.25</f>
         <v>1750</v>
       </c>
-      <c r="S17" s="32">
+      <c r="S17" s="23">
         <f>SUM(O17:R17)</f>
         <v>7000</v>
       </c>
@@ -1106,15 +1108,15 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>1</v>
       </c>
@@ -1158,24 +1160,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
